--- a/indexer_lib/data/SELIC.xlsx
+++ b/indexer_lib/data/SELIC.xlsx
@@ -409,7 +409,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O23"/>
+  <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -465,43 +465,10 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B2" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0.13</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0.21</v>
-      </c>
-      <c r="F2" s="2">
-        <v>0.27</v>
-      </c>
-      <c r="G2" s="2">
-        <v>0.31</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0.36</v>
-      </c>
-      <c r="I2" s="2">
-        <v>0.43</v>
-      </c>
-      <c r="J2" s="2">
-        <v>0.44</v>
-      </c>
-      <c r="K2" s="2">
-        <v>0.49</v>
-      </c>
-      <c r="L2" s="2">
-        <v>0.59</v>
-      </c>
-      <c r="M2" s="2">
-        <v>0.77</v>
+        <v>0.73</v>
       </c>
       <c r="O2" t="s">
         <v>14</v>
@@ -509,862 +476,903 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B3" s="2">
-        <v>0.38</v>
+        <v>0.15</v>
       </c>
       <c r="C3" s="2">
-        <v>0.28999999999999998</v>
+        <v>0.13</v>
       </c>
       <c r="D3" s="2">
-        <v>0.34</v>
+        <v>0.2</v>
       </c>
       <c r="E3" s="2">
-        <v>0.28000000000000003</v>
+        <v>0.21</v>
       </c>
       <c r="F3" s="2">
-        <v>0.24</v>
+        <v>0.27</v>
       </c>
       <c r="G3" s="2">
-        <v>0.21</v>
+        <v>0.31</v>
       </c>
       <c r="H3" s="2">
-        <v>0.19</v>
+        <v>0.36</v>
       </c>
       <c r="I3" s="2">
-        <v>0.16</v>
+        <v>0.43</v>
       </c>
       <c r="J3" s="2">
-        <v>0.16</v>
+        <v>0.44</v>
       </c>
       <c r="K3" s="2">
-        <v>0.16</v>
+        <v>0.49</v>
       </c>
       <c r="L3" s="2">
-        <v>0.15</v>
+        <v>0.59</v>
       </c>
       <c r="M3" s="2">
-        <v>0.16</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B4" s="2">
-        <v>0.54</v>
+        <v>0.38</v>
       </c>
       <c r="C4" s="2">
-        <v>0.49</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="D4" s="2">
-        <v>0.47</v>
+        <v>0.34</v>
       </c>
       <c r="E4" s="2">
-        <v>0.52</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="F4" s="2">
-        <v>0.54</v>
+        <v>0.24</v>
       </c>
       <c r="G4" s="2">
-        <v>0.47</v>
+        <v>0.21</v>
       </c>
       <c r="H4" s="2">
-        <v>0.56999999999999995</v>
+        <v>0.19</v>
       </c>
       <c r="I4" s="2">
-        <v>0.5</v>
+        <v>0.16</v>
       </c>
       <c r="J4" s="2">
-        <v>0.46</v>
+        <v>0.16</v>
       </c>
       <c r="K4" s="2">
-        <v>0.48</v>
+        <v>0.16</v>
       </c>
       <c r="L4" s="2">
-        <v>0.38</v>
+        <v>0.15</v>
       </c>
       <c r="M4" s="2">
-        <v>0.37</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B5" s="2">
-        <v>0.57999999999999996</v>
+        <v>0.54</v>
       </c>
       <c r="C5" s="2">
+        <v>0.49</v>
+      </c>
+      <c r="D5" s="2">
         <v>0.47</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0.53</v>
       </c>
       <c r="E5" s="2">
         <v>0.52</v>
       </c>
       <c r="F5" s="2">
-        <v>0.52</v>
+        <v>0.54</v>
       </c>
       <c r="G5" s="2">
-        <v>0.52</v>
+        <v>0.47</v>
       </c>
       <c r="H5" s="2">
-        <v>0.54</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="I5" s="2">
-        <v>0.56999999999999995</v>
+        <v>0.5</v>
       </c>
       <c r="J5" s="2">
-        <v>0.47</v>
+        <v>0.46</v>
       </c>
       <c r="K5" s="2">
-        <v>0.54</v>
+        <v>0.48</v>
       </c>
       <c r="L5" s="2">
-        <v>0.49</v>
+        <v>0.38</v>
       </c>
       <c r="M5" s="2">
-        <v>0.49</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B6" s="2">
-        <v>1.0900000000000001</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="C6" s="2">
-        <v>0.87</v>
+        <v>0.47</v>
       </c>
       <c r="D6" s="2">
-        <v>1.05</v>
+        <v>0.53</v>
       </c>
       <c r="E6" s="2">
-        <v>0.79</v>
+        <v>0.52</v>
       </c>
       <c r="F6" s="2">
-        <v>0.93</v>
+        <v>0.52</v>
       </c>
       <c r="G6" s="2">
-        <v>0.81</v>
+        <v>0.52</v>
       </c>
       <c r="H6" s="2">
-        <v>0.8</v>
+        <v>0.54</v>
       </c>
       <c r="I6" s="2">
-        <v>0.8</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="J6" s="2">
-        <v>0.64</v>
+        <v>0.47</v>
       </c>
       <c r="K6" s="2">
-        <v>0.64</v>
+        <v>0.54</v>
       </c>
       <c r="L6" s="2">
-        <v>0.56999999999999995</v>
+        <v>0.49</v>
       </c>
       <c r="M6" s="2">
-        <v>0.54</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B7" s="2">
-        <v>1.06</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="C7" s="2">
-        <v>1</v>
+        <v>0.87</v>
       </c>
       <c r="D7" s="2">
-        <v>1.1599999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="E7" s="2">
-        <v>1.06</v>
+        <v>0.79</v>
       </c>
       <c r="F7" s="2">
-        <v>1.1100000000000001</v>
+        <v>0.93</v>
       </c>
       <c r="G7" s="2">
-        <v>1.1599999999999999</v>
+        <v>0.81</v>
       </c>
       <c r="H7" s="2">
-        <v>1.1100000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="I7" s="2">
-        <v>1.22</v>
+        <v>0.8</v>
       </c>
       <c r="J7" s="2">
-        <v>1.1100000000000001</v>
+        <v>0.64</v>
       </c>
       <c r="K7" s="2">
-        <v>1.05</v>
+        <v>0.64</v>
       </c>
       <c r="L7" s="2">
-        <v>1.04</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="M7" s="2">
-        <v>1.1200000000000001</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B8" s="2">
-        <v>0.94</v>
+        <v>1.06</v>
       </c>
       <c r="C8" s="2">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="D8" s="2">
-        <v>1.04</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="E8" s="2">
-        <v>0.95</v>
+        <v>1.06</v>
       </c>
       <c r="F8" s="2">
-        <v>0.99</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="G8" s="2">
-        <v>1.07</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="H8" s="2">
-        <v>1.18</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="I8" s="2">
-        <v>1.1100000000000001</v>
+        <v>1.22</v>
       </c>
       <c r="J8" s="2">
         <v>1.1100000000000001</v>
       </c>
       <c r="K8" s="2">
-        <v>1.1100000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="L8" s="2">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="M8" s="2">
-        <v>1.1599999999999999</v>
+        <v>1.1200000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B9" s="2">
-        <v>0.85</v>
+        <v>0.94</v>
       </c>
       <c r="C9" s="2">
-        <v>0.79</v>
+        <v>0.82</v>
       </c>
       <c r="D9" s="2">
-        <v>0.77</v>
+        <v>1.04</v>
       </c>
       <c r="E9" s="2">
-        <v>0.82</v>
+        <v>0.95</v>
       </c>
       <c r="F9" s="2">
-        <v>0.87</v>
+        <v>0.99</v>
       </c>
       <c r="G9" s="2">
-        <v>0.82</v>
+        <v>1.07</v>
       </c>
       <c r="H9" s="2">
-        <v>0.95</v>
+        <v>1.18</v>
       </c>
       <c r="I9" s="2">
-        <v>0.87</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="J9" s="2">
-        <v>0.91</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="K9" s="2">
-        <v>0.95</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="L9" s="2">
-        <v>0.84</v>
+        <v>1.06</v>
       </c>
       <c r="M9" s="2">
-        <v>0.96</v>
+        <v>1.1599999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B10" s="2">
-        <v>0.6</v>
+        <v>0.85</v>
       </c>
       <c r="C10" s="2">
-        <v>0.49</v>
+        <v>0.79</v>
       </c>
       <c r="D10" s="2">
-        <v>0.55000000000000004</v>
+        <v>0.77</v>
       </c>
       <c r="E10" s="2">
-        <v>0.61</v>
+        <v>0.82</v>
       </c>
       <c r="F10" s="2">
-        <v>0.6</v>
+        <v>0.87</v>
       </c>
       <c r="G10" s="2">
-        <v>0.61</v>
+        <v>0.82</v>
       </c>
       <c r="H10" s="2">
-        <v>0.72</v>
+        <v>0.95</v>
       </c>
       <c r="I10" s="2">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="J10" s="2">
-        <v>0.71</v>
+        <v>0.91</v>
       </c>
       <c r="K10" s="2">
-        <v>0.81</v>
+        <v>0.95</v>
       </c>
       <c r="L10" s="2">
-        <v>0.72</v>
+        <v>0.84</v>
       </c>
       <c r="M10" s="2">
-        <v>0.79</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B11" s="2">
-        <v>0.89</v>
+        <v>0.6</v>
       </c>
       <c r="C11" s="2">
-        <v>0.75</v>
+        <v>0.49</v>
       </c>
       <c r="D11" s="2">
-        <v>0.82</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="E11" s="2">
+        <v>0.61</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0.61</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0.72</v>
+      </c>
+      <c r="I11" s="2">
         <v>0.71</v>
       </c>
-      <c r="F11" s="2">
-        <v>0.74</v>
-      </c>
-      <c r="G11" s="2">
-        <v>0.64</v>
-      </c>
-      <c r="H11" s="2">
-        <v>0.68</v>
-      </c>
-      <c r="I11" s="2">
-        <v>0.69</v>
-      </c>
       <c r="J11" s="2">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="K11" s="2">
-        <v>0.61</v>
+        <v>0.81</v>
       </c>
       <c r="L11" s="2">
-        <v>0.55000000000000004</v>
+        <v>0.72</v>
       </c>
       <c r="M11" s="2">
-        <v>0.55000000000000004</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B12" s="2">
-        <v>0.86</v>
+        <v>0.89</v>
       </c>
       <c r="C12" s="2">
-        <v>0.84</v>
+        <v>0.75</v>
       </c>
       <c r="D12" s="2">
-        <v>0.92</v>
+        <v>0.82</v>
       </c>
       <c r="E12" s="2">
-        <v>0.84</v>
+        <v>0.71</v>
       </c>
       <c r="F12" s="2">
-        <v>0.99</v>
+        <v>0.74</v>
       </c>
       <c r="G12" s="2">
-        <v>0.96</v>
+        <v>0.64</v>
       </c>
       <c r="H12" s="2">
-        <v>0.97</v>
+        <v>0.68</v>
       </c>
       <c r="I12" s="2">
-        <v>1.07</v>
+        <v>0.69</v>
       </c>
       <c r="J12" s="2">
-        <v>0.94</v>
+        <v>0.54</v>
       </c>
       <c r="K12" s="2">
-        <v>0.88</v>
+        <v>0.61</v>
       </c>
       <c r="L12" s="2">
-        <v>0.86</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="M12" s="2">
-        <v>0.91</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B13" s="2">
-        <v>0.66</v>
+        <v>0.86</v>
       </c>
       <c r="C13" s="2">
-        <v>0.59</v>
+        <v>0.84</v>
       </c>
       <c r="D13" s="2">
-        <v>0.76</v>
+        <v>0.92</v>
       </c>
       <c r="E13" s="2">
-        <v>0.67</v>
+        <v>0.84</v>
       </c>
       <c r="F13" s="2">
-        <v>0.75</v>
+        <v>0.99</v>
       </c>
       <c r="G13" s="2">
-        <v>0.79</v>
+        <v>0.96</v>
       </c>
       <c r="H13" s="2">
+        <v>0.97</v>
+      </c>
+      <c r="I13" s="2">
+        <v>1.07</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0.94</v>
+      </c>
+      <c r="K13" s="2">
+        <v>0.88</v>
+      </c>
+      <c r="L13" s="2">
         <v>0.86</v>
       </c>
-      <c r="I13" s="2">
-        <v>0.89</v>
-      </c>
-      <c r="J13" s="2">
-        <v>0.85</v>
-      </c>
-      <c r="K13" s="2">
-        <v>0.81</v>
-      </c>
-      <c r="L13" s="2">
-        <v>0.81</v>
-      </c>
       <c r="M13" s="2">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="B14" s="2">
-        <v>1.05</v>
+        <v>0.66</v>
       </c>
       <c r="C14" s="2">
+        <v>0.59</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.76</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0.67</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0.79</v>
+      </c>
+      <c r="H14" s="2">
         <v>0.86</v>
       </c>
-      <c r="D14" s="2">
-        <v>0.97</v>
-      </c>
-      <c r="E14" s="2">
-        <v>0.84</v>
-      </c>
-      <c r="F14" s="2">
-        <v>0.77</v>
-      </c>
-      <c r="G14" s="2">
-        <v>0.76</v>
-      </c>
-      <c r="H14" s="2">
-        <v>0.79</v>
-      </c>
       <c r="I14" s="2">
-        <v>0.69</v>
+        <v>0.89</v>
       </c>
       <c r="J14" s="2">
-        <v>0.69</v>
+        <v>0.85</v>
       </c>
       <c r="K14" s="2">
-        <v>0.69</v>
+        <v>0.81</v>
       </c>
       <c r="L14" s="2">
-        <v>0.66</v>
+        <v>0.81</v>
       </c>
       <c r="M14" s="2">
-        <v>0.73</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="B15" s="2">
-        <v>0.93</v>
+        <v>1.05</v>
       </c>
       <c r="C15" s="2">
-        <v>0.8</v>
+        <v>0.86</v>
       </c>
       <c r="D15" s="2">
+        <v>0.97</v>
+      </c>
+      <c r="E15" s="2">
         <v>0.84</v>
       </c>
-      <c r="E15" s="2">
-        <v>0.9</v>
-      </c>
       <c r="F15" s="2">
-        <v>0.88</v>
+        <v>0.77</v>
       </c>
       <c r="G15" s="2">
-        <v>0.96</v>
+        <v>0.76</v>
       </c>
       <c r="H15" s="2">
-        <v>1.07</v>
+        <v>0.79</v>
       </c>
       <c r="I15" s="2">
-        <v>1.02</v>
+        <v>0.69</v>
       </c>
       <c r="J15" s="2">
-        <v>1.1000000000000001</v>
+        <v>0.69</v>
       </c>
       <c r="K15" s="2">
-        <v>1.18</v>
+        <v>0.69</v>
       </c>
       <c r="L15" s="2">
-        <v>1.02</v>
+        <v>0.66</v>
       </c>
       <c r="M15" s="2">
-        <v>1.1200000000000001</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="B16" s="2">
-        <v>1.08</v>
+        <v>0.93</v>
       </c>
       <c r="C16" s="2">
-        <v>0.87</v>
+        <v>0.8</v>
       </c>
       <c r="D16" s="2">
-        <v>1.05</v>
+        <v>0.84</v>
       </c>
       <c r="E16" s="2">
-        <v>0.94</v>
+        <v>0.9</v>
       </c>
       <c r="F16" s="2">
-        <v>1.03</v>
+        <v>0.88</v>
       </c>
       <c r="G16" s="2">
-        <v>0.91</v>
+        <v>0.96</v>
       </c>
       <c r="H16" s="2">
-        <v>0.97</v>
+        <v>1.07</v>
       </c>
       <c r="I16" s="2">
-        <v>0.99</v>
+        <v>1.02</v>
       </c>
       <c r="J16" s="2">
-        <v>0.8</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K16" s="2">
-        <v>0.93</v>
+        <v>1.18</v>
       </c>
       <c r="L16" s="2">
-        <v>0.84</v>
+        <v>1.02</v>
       </c>
       <c r="M16" s="2">
-        <v>0.84</v>
+        <v>1.1200000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="B17" s="2">
-        <v>1.43</v>
+        <v>1.08</v>
       </c>
       <c r="C17" s="2">
-        <v>1.1499999999999999</v>
+        <v>0.87</v>
       </c>
       <c r="D17" s="2">
-        <v>1.42</v>
+        <v>1.05</v>
       </c>
       <c r="E17" s="2">
-        <v>1.08</v>
+        <v>0.94</v>
       </c>
       <c r="F17" s="2">
-        <v>1.28</v>
+        <v>1.03</v>
       </c>
       <c r="G17" s="2">
-        <v>1.18</v>
+        <v>0.91</v>
       </c>
       <c r="H17" s="2">
-        <v>1.17</v>
+        <v>0.97</v>
       </c>
       <c r="I17" s="2">
-        <v>1.26</v>
+        <v>0.99</v>
       </c>
       <c r="J17" s="2">
-        <v>1.06</v>
+        <v>0.8</v>
       </c>
       <c r="K17" s="2">
-        <v>1.0900000000000001</v>
+        <v>0.93</v>
       </c>
       <c r="L17" s="2">
-        <v>1.02</v>
+        <v>0.84</v>
       </c>
       <c r="M17" s="2">
-        <v>0.99</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="B18" s="2">
-        <v>1.38</v>
+        <v>1.43</v>
       </c>
       <c r="C18" s="2">
-        <v>1.22</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="D18" s="2">
-        <v>1.53</v>
+        <v>1.42</v>
       </c>
       <c r="E18" s="2">
-        <v>1.41</v>
+        <v>1.08</v>
       </c>
       <c r="F18" s="2">
-        <v>1.5</v>
+        <v>1.28</v>
       </c>
       <c r="G18" s="2">
-        <v>1.59</v>
+        <v>1.18</v>
       </c>
       <c r="H18" s="2">
-        <v>1.51</v>
+        <v>1.17</v>
       </c>
       <c r="I18" s="2">
-        <v>1.66</v>
+        <v>1.26</v>
       </c>
       <c r="J18" s="2">
-        <v>1.5</v>
+        <v>1.06</v>
       </c>
       <c r="K18" s="2">
-        <v>1.41</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="L18" s="2">
-        <v>1.38</v>
+        <v>1.02</v>
       </c>
       <c r="M18" s="2">
-        <v>1.47</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="B19" s="2">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="C19" s="2">
-        <v>1.08</v>
+        <v>1.22</v>
       </c>
       <c r="D19" s="2">
+        <v>1.53</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1.41</v>
+      </c>
+      <c r="F19" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="G19" s="2">
+        <v>1.59</v>
+      </c>
+      <c r="H19" s="2">
+        <v>1.51</v>
+      </c>
+      <c r="I19" s="2">
+        <v>1.66</v>
+      </c>
+      <c r="J19" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="K19" s="2">
+        <v>1.41</v>
+      </c>
+      <c r="L19" s="2">
         <v>1.38</v>
       </c>
-      <c r="E19" s="2">
-        <v>1.18</v>
-      </c>
-      <c r="F19" s="2">
-        <v>1.23</v>
-      </c>
-      <c r="G19" s="2">
-        <v>1.23</v>
-      </c>
-      <c r="H19" s="2">
-        <v>1.29</v>
-      </c>
-      <c r="I19" s="2">
-        <v>1.29</v>
-      </c>
-      <c r="J19" s="2">
-        <v>1.25</v>
-      </c>
-      <c r="K19" s="2">
-        <v>1.21</v>
-      </c>
-      <c r="L19" s="2">
-        <v>1.25</v>
-      </c>
       <c r="M19" s="2">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="B20" s="2">
-        <v>1.97</v>
+        <v>1.27</v>
       </c>
       <c r="C20" s="2">
-        <v>1.83</v>
+        <v>1.08</v>
       </c>
       <c r="D20" s="2">
-        <v>1.78</v>
+        <v>1.38</v>
       </c>
       <c r="E20" s="2">
-        <v>1.87</v>
+        <v>1.18</v>
       </c>
       <c r="F20" s="2">
-        <v>1.97</v>
+        <v>1.23</v>
       </c>
       <c r="G20" s="2">
-        <v>1.86</v>
+        <v>1.23</v>
       </c>
       <c r="H20" s="2">
-        <v>2.08</v>
+        <v>1.29</v>
       </c>
       <c r="I20" s="2">
-        <v>1.77</v>
+        <v>1.29</v>
       </c>
       <c r="J20" s="2">
-        <v>1.68</v>
+        <v>1.25</v>
       </c>
       <c r="K20" s="2">
-        <v>1.64</v>
+        <v>1.21</v>
       </c>
       <c r="L20" s="2">
-        <v>1.34</v>
+        <v>1.25</v>
       </c>
       <c r="M20" s="2">
-        <v>1.37</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="B21" s="2">
-        <v>1.53</v>
+        <v>1.97</v>
       </c>
       <c r="C21" s="2">
-        <v>1.25</v>
+        <v>1.83</v>
       </c>
       <c r="D21" s="2">
+        <v>1.78</v>
+      </c>
+      <c r="E21" s="2">
+        <v>1.87</v>
+      </c>
+      <c r="F21" s="2">
+        <v>1.97</v>
+      </c>
+      <c r="G21" s="2">
+        <v>1.86</v>
+      </c>
+      <c r="H21" s="2">
+        <v>2.08</v>
+      </c>
+      <c r="I21" s="2">
+        <v>1.77</v>
+      </c>
+      <c r="J21" s="2">
+        <v>1.68</v>
+      </c>
+      <c r="K21" s="2">
+        <v>1.64</v>
+      </c>
+      <c r="L21" s="2">
+        <v>1.34</v>
+      </c>
+      <c r="M21" s="2">
         <v>1.37</v>
-      </c>
-      <c r="E21" s="2">
-        <v>1.48</v>
-      </c>
-      <c r="F21" s="2">
-        <v>1.41</v>
-      </c>
-      <c r="G21" s="2">
-        <v>1.33</v>
-      </c>
-      <c r="H21" s="2">
-        <v>1.54</v>
-      </c>
-      <c r="I21" s="2">
-        <v>1.44</v>
-      </c>
-      <c r="J21" s="2">
-        <v>1.38</v>
-      </c>
-      <c r="K21" s="2">
-        <v>1.65</v>
-      </c>
-      <c r="L21" s="2">
-        <v>1.54</v>
-      </c>
-      <c r="M21" s="2">
-        <v>1.74</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="B22" s="2">
-        <v>1.27</v>
+        <v>1.53</v>
       </c>
       <c r="C22" s="2">
-        <v>1.02</v>
+        <v>1.25</v>
       </c>
       <c r="D22" s="2">
-        <v>1.26</v>
+        <v>1.37</v>
       </c>
       <c r="E22" s="2">
-        <v>1.19</v>
+        <v>1.48</v>
       </c>
       <c r="F22" s="2">
-        <v>1.34</v>
+        <v>1.41</v>
       </c>
       <c r="G22" s="2">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="H22" s="2">
-        <v>1.5</v>
+        <v>1.54</v>
       </c>
       <c r="I22" s="2">
-        <v>1.6</v>
+        <v>1.44</v>
       </c>
       <c r="J22" s="2">
-        <v>1.32</v>
+        <v>1.38</v>
       </c>
       <c r="K22" s="2">
-        <v>1.53</v>
+        <v>1.65</v>
       </c>
       <c r="L22" s="2">
-        <v>1.39</v>
+        <v>1.54</v>
       </c>
       <c r="M22" s="2">
-        <v>1.39</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
+        <v>2001</v>
+      </c>
+      <c r="B23" s="2">
+        <v>1.27</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1.02</v>
+      </c>
+      <c r="D23" s="2">
+        <v>1.26</v>
+      </c>
+      <c r="E23" s="2">
+        <v>1.19</v>
+      </c>
+      <c r="F23" s="2">
+        <v>1.34</v>
+      </c>
+      <c r="G23" s="2">
+        <v>1.27</v>
+      </c>
+      <c r="H23" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="I23" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="J23" s="2">
+        <v>1.32</v>
+      </c>
+      <c r="K23" s="2">
+        <v>1.53</v>
+      </c>
+      <c r="L23" s="2">
+        <v>1.39</v>
+      </c>
+      <c r="M23" s="2">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
         <v>2000</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B24" s="2">
         <v>1.46</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C24" s="2">
         <v>1.45</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D24" s="2">
         <v>1.45</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E24" s="2">
         <v>1.3</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F24" s="2">
         <v>1.49</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G24" s="2">
         <v>1.39</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H24" s="2">
         <v>1.31</v>
       </c>
-      <c r="I23" s="2">
+      <c r="I24" s="2">
         <v>1.41</v>
       </c>
-      <c r="J23" s="2">
+      <c r="J24" s="2">
         <v>1.22</v>
       </c>
-      <c r="K23" s="2">
+      <c r="K24" s="2">
         <v>1.29</v>
       </c>
-      <c r="L23" s="2">
+      <c r="L24" s="2">
         <v>1.22</v>
       </c>
-      <c r="M23" s="2">
+      <c r="M24" s="2">
         <v>1.2</v>
       </c>
     </row>

--- a/indexer_lib/data/SELIC.xlsx
+++ b/indexer_lib/data/SELIC.xlsx
@@ -470,6 +470,9 @@
       <c r="B2" s="2">
         <v>0.73</v>
       </c>
+      <c r="C2" s="2">
+        <v>0.76</v>
+      </c>
       <c r="O2" t="s">
         <v>14</v>
       </c>

--- a/indexer_lib/data/SELIC.xlsx
+++ b/indexer_lib/data/SELIC.xlsx
@@ -473,6 +473,9 @@
       <c r="C2" s="2">
         <v>0.76</v>
       </c>
+      <c r="D2" s="2">
+        <v>0.93</v>
+      </c>
       <c r="O2" t="s">
         <v>14</v>
       </c>

--- a/indexer_lib/data/SELIC.xlsx
+++ b/indexer_lib/data/SELIC.xlsx
@@ -476,6 +476,9 @@
       <c r="D2" s="2">
         <v>0.93</v>
       </c>
+      <c r="E2" s="2">
+        <v>0.83</v>
+      </c>
       <c r="O2" t="s">
         <v>14</v>
       </c>

--- a/indexer_lib/data/SELIC.xlsx
+++ b/indexer_lib/data/SELIC.xlsx
@@ -479,6 +479,9 @@
       <c r="E2" s="2">
         <v>0.83</v>
       </c>
+      <c r="F2" s="2">
+        <v>1.03</v>
+      </c>
       <c r="O2" t="s">
         <v>14</v>
       </c>

--- a/indexer_lib/data/SELIC.xlsx
+++ b/indexer_lib/data/SELIC.xlsx
@@ -482,6 +482,12 @@
       <c r="F2" s="2">
         <v>1.03</v>
       </c>
+      <c r="G2" s="2">
+        <v>1.02</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1.03</v>
+      </c>
       <c r="O2" t="s">
         <v>14</v>
       </c>

--- a/indexer_lib/data/SELIC.xlsx
+++ b/indexer_lib/data/SELIC.xlsx
@@ -488,6 +488,9 @@
       <c r="H2" s="2">
         <v>1.03</v>
       </c>
+      <c r="I2" s="2">
+        <v>1.17</v>
+      </c>
       <c r="O2" t="s">
         <v>14</v>
       </c>

--- a/indexer_lib/data/SELIC.xlsx
+++ b/indexer_lib/data/SELIC.xlsx
@@ -491,6 +491,12 @@
       <c r="I2" s="2">
         <v>1.17</v>
       </c>
+      <c r="J2" s="2">
+        <v>1.07</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1.02</v>
+      </c>
       <c r="O2" t="s">
         <v>14</v>
       </c>

--- a/indexer_lib/data/SELIC.xlsx
+++ b/indexer_lib/data/SELIC.xlsx
@@ -411,7 +411,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -497,6 +499,9 @@
       <c r="K2" s="2">
         <v>1.02</v>
       </c>
+      <c r="L2" s="2">
+        <v>1.02</v>
+      </c>
       <c r="O2" t="s">
         <v>14</v>
       </c>

--- a/indexer_lib/data/SELIC.xlsx
+++ b/indexer_lib/data/SELIC.xlsx
@@ -409,11 +409,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O24"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -467,948 +465,967 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B2" s="2">
-        <v>0.73</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="C2" s="2">
-        <v>0.76</v>
+        <v>0.92</v>
       </c>
       <c r="D2" s="2">
-        <v>0.93</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0.83</v>
-      </c>
-      <c r="F2" s="2">
-        <v>1.03</v>
-      </c>
-      <c r="G2" s="2">
-        <v>1.02</v>
-      </c>
-      <c r="H2" s="2">
-        <v>1.03</v>
-      </c>
-      <c r="I2" s="2">
         <v>1.17</v>
       </c>
-      <c r="J2" s="2">
-        <v>1.07</v>
-      </c>
-      <c r="K2" s="2">
-        <v>1.02</v>
-      </c>
-      <c r="L2" s="2">
-        <v>1.02</v>
-      </c>
-      <c r="O2" t="s">
-        <v>14</v>
-      </c>
+      <c r="O2" s="1"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B3" s="2">
-        <v>0.15</v>
+        <v>0.73</v>
       </c>
       <c r="C3" s="2">
-        <v>0.13</v>
+        <v>0.76</v>
       </c>
       <c r="D3" s="2">
-        <v>0.2</v>
+        <v>0.93</v>
       </c>
       <c r="E3" s="2">
-        <v>0.21</v>
+        <v>0.83</v>
       </c>
       <c r="F3" s="2">
-        <v>0.27</v>
+        <v>1.03</v>
       </c>
       <c r="G3" s="2">
-        <v>0.31</v>
+        <v>1.02</v>
       </c>
       <c r="H3" s="2">
-        <v>0.36</v>
+        <v>1.03</v>
       </c>
       <c r="I3" s="2">
-        <v>0.43</v>
+        <v>1.17</v>
       </c>
       <c r="J3" s="2">
-        <v>0.44</v>
+        <v>1.07</v>
       </c>
       <c r="K3" s="2">
-        <v>0.49</v>
+        <v>1.02</v>
       </c>
       <c r="L3" s="2">
-        <v>0.59</v>
+        <v>1.02</v>
       </c>
       <c r="M3" s="2">
-        <v>0.77</v>
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="O3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B4" s="2">
-        <v>0.38</v>
+        <v>0.15</v>
       </c>
       <c r="C4" s="2">
-        <v>0.28999999999999998</v>
+        <v>0.13</v>
       </c>
       <c r="D4" s="2">
-        <v>0.34</v>
+        <v>0.2</v>
       </c>
       <c r="E4" s="2">
-        <v>0.28000000000000003</v>
+        <v>0.21</v>
       </c>
       <c r="F4" s="2">
-        <v>0.24</v>
+        <v>0.27</v>
       </c>
       <c r="G4" s="2">
-        <v>0.21</v>
+        <v>0.31</v>
       </c>
       <c r="H4" s="2">
-        <v>0.19</v>
+        <v>0.36</v>
       </c>
       <c r="I4" s="2">
-        <v>0.16</v>
+        <v>0.43</v>
       </c>
       <c r="J4" s="2">
-        <v>0.16</v>
+        <v>0.44</v>
       </c>
       <c r="K4" s="2">
-        <v>0.16</v>
+        <v>0.49</v>
       </c>
       <c r="L4" s="2">
-        <v>0.15</v>
+        <v>0.59</v>
       </c>
       <c r="M4" s="2">
-        <v>0.16</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B5" s="2">
-        <v>0.54</v>
+        <v>0.38</v>
       </c>
       <c r="C5" s="2">
-        <v>0.49</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="D5" s="2">
-        <v>0.47</v>
+        <v>0.34</v>
       </c>
       <c r="E5" s="2">
-        <v>0.52</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="F5" s="2">
-        <v>0.54</v>
+        <v>0.24</v>
       </c>
       <c r="G5" s="2">
-        <v>0.47</v>
+        <v>0.21</v>
       </c>
       <c r="H5" s="2">
-        <v>0.56999999999999995</v>
+        <v>0.19</v>
       </c>
       <c r="I5" s="2">
-        <v>0.5</v>
+        <v>0.16</v>
       </c>
       <c r="J5" s="2">
-        <v>0.46</v>
+        <v>0.16</v>
       </c>
       <c r="K5" s="2">
-        <v>0.48</v>
+        <v>0.16</v>
       </c>
       <c r="L5" s="2">
-        <v>0.38</v>
+        <v>0.15</v>
       </c>
       <c r="M5" s="2">
-        <v>0.37</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B6" s="2">
-        <v>0.57999999999999996</v>
+        <v>0.54</v>
       </c>
       <c r="C6" s="2">
+        <v>0.49</v>
+      </c>
+      <c r="D6" s="2">
         <v>0.47</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0.53</v>
       </c>
       <c r="E6" s="2">
         <v>0.52</v>
       </c>
       <c r="F6" s="2">
-        <v>0.52</v>
+        <v>0.54</v>
       </c>
       <c r="G6" s="2">
-        <v>0.52</v>
+        <v>0.47</v>
       </c>
       <c r="H6" s="2">
-        <v>0.54</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="I6" s="2">
-        <v>0.56999999999999995</v>
+        <v>0.5</v>
       </c>
       <c r="J6" s="2">
-        <v>0.47</v>
+        <v>0.46</v>
       </c>
       <c r="K6" s="2">
-        <v>0.54</v>
+        <v>0.48</v>
       </c>
       <c r="L6" s="2">
-        <v>0.49</v>
+        <v>0.38</v>
       </c>
       <c r="M6" s="2">
-        <v>0.49</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B7" s="2">
-        <v>1.0900000000000001</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="C7" s="2">
-        <v>0.87</v>
+        <v>0.47</v>
       </c>
       <c r="D7" s="2">
-        <v>1.05</v>
+        <v>0.53</v>
       </c>
       <c r="E7" s="2">
-        <v>0.79</v>
+        <v>0.52</v>
       </c>
       <c r="F7" s="2">
-        <v>0.93</v>
+        <v>0.52</v>
       </c>
       <c r="G7" s="2">
-        <v>0.81</v>
+        <v>0.52</v>
       </c>
       <c r="H7" s="2">
-        <v>0.8</v>
+        <v>0.54</v>
       </c>
       <c r="I7" s="2">
-        <v>0.8</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="J7" s="2">
-        <v>0.64</v>
+        <v>0.47</v>
       </c>
       <c r="K7" s="2">
-        <v>0.64</v>
+        <v>0.54</v>
       </c>
       <c r="L7" s="2">
-        <v>0.56999999999999995</v>
+        <v>0.49</v>
       </c>
       <c r="M7" s="2">
-        <v>0.54</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B8" s="2">
-        <v>1.06</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="C8" s="2">
-        <v>1</v>
+        <v>0.87</v>
       </c>
       <c r="D8" s="2">
-        <v>1.1599999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="E8" s="2">
-        <v>1.06</v>
+        <v>0.79</v>
       </c>
       <c r="F8" s="2">
-        <v>1.1100000000000001</v>
+        <v>0.93</v>
       </c>
       <c r="G8" s="2">
-        <v>1.1599999999999999</v>
+        <v>0.81</v>
       </c>
       <c r="H8" s="2">
-        <v>1.1100000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="I8" s="2">
-        <v>1.22</v>
+        <v>0.8</v>
       </c>
       <c r="J8" s="2">
-        <v>1.1100000000000001</v>
+        <v>0.64</v>
       </c>
       <c r="K8" s="2">
-        <v>1.05</v>
+        <v>0.64</v>
       </c>
       <c r="L8" s="2">
-        <v>1.04</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="M8" s="2">
-        <v>1.1200000000000001</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B9" s="2">
-        <v>0.94</v>
+        <v>1.06</v>
       </c>
       <c r="C9" s="2">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="D9" s="2">
-        <v>1.04</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="E9" s="2">
-        <v>0.95</v>
+        <v>1.06</v>
       </c>
       <c r="F9" s="2">
-        <v>0.99</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="G9" s="2">
-        <v>1.07</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="H9" s="2">
-        <v>1.18</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="I9" s="2">
-        <v>1.1100000000000001</v>
+        <v>1.22</v>
       </c>
       <c r="J9" s="2">
         <v>1.1100000000000001</v>
       </c>
       <c r="K9" s="2">
-        <v>1.1100000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="L9" s="2">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="M9" s="2">
-        <v>1.1599999999999999</v>
+        <v>1.1200000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B10" s="2">
-        <v>0.85</v>
+        <v>0.94</v>
       </c>
       <c r="C10" s="2">
-        <v>0.79</v>
+        <v>0.82</v>
       </c>
       <c r="D10" s="2">
-        <v>0.77</v>
+        <v>1.04</v>
       </c>
       <c r="E10" s="2">
-        <v>0.82</v>
+        <v>0.95</v>
       </c>
       <c r="F10" s="2">
-        <v>0.87</v>
+        <v>0.99</v>
       </c>
       <c r="G10" s="2">
-        <v>0.82</v>
+        <v>1.07</v>
       </c>
       <c r="H10" s="2">
-        <v>0.95</v>
+        <v>1.18</v>
       </c>
       <c r="I10" s="2">
-        <v>0.87</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="J10" s="2">
-        <v>0.91</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="K10" s="2">
-        <v>0.95</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="L10" s="2">
-        <v>0.84</v>
+        <v>1.06</v>
       </c>
       <c r="M10" s="2">
-        <v>0.96</v>
+        <v>1.1599999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B11" s="2">
-        <v>0.6</v>
+        <v>0.85</v>
       </c>
       <c r="C11" s="2">
-        <v>0.49</v>
+        <v>0.79</v>
       </c>
       <c r="D11" s="2">
-        <v>0.55000000000000004</v>
+        <v>0.77</v>
       </c>
       <c r="E11" s="2">
-        <v>0.61</v>
+        <v>0.82</v>
       </c>
       <c r="F11" s="2">
-        <v>0.6</v>
+        <v>0.87</v>
       </c>
       <c r="G11" s="2">
-        <v>0.61</v>
+        <v>0.82</v>
       </c>
       <c r="H11" s="2">
-        <v>0.72</v>
+        <v>0.95</v>
       </c>
       <c r="I11" s="2">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="J11" s="2">
-        <v>0.71</v>
+        <v>0.91</v>
       </c>
       <c r="K11" s="2">
-        <v>0.81</v>
+        <v>0.95</v>
       </c>
       <c r="L11" s="2">
-        <v>0.72</v>
+        <v>0.84</v>
       </c>
       <c r="M11" s="2">
-        <v>0.79</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B12" s="2">
-        <v>0.89</v>
+        <v>0.6</v>
       </c>
       <c r="C12" s="2">
-        <v>0.75</v>
+        <v>0.49</v>
       </c>
       <c r="D12" s="2">
-        <v>0.82</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="E12" s="2">
+        <v>0.61</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0.61</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0.72</v>
+      </c>
+      <c r="I12" s="2">
         <v>0.71</v>
       </c>
-      <c r="F12" s="2">
-        <v>0.74</v>
-      </c>
-      <c r="G12" s="2">
-        <v>0.64</v>
-      </c>
-      <c r="H12" s="2">
-        <v>0.68</v>
-      </c>
-      <c r="I12" s="2">
-        <v>0.69</v>
-      </c>
       <c r="J12" s="2">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="K12" s="2">
-        <v>0.61</v>
+        <v>0.81</v>
       </c>
       <c r="L12" s="2">
-        <v>0.55000000000000004</v>
+        <v>0.72</v>
       </c>
       <c r="M12" s="2">
-        <v>0.55000000000000004</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B13" s="2">
-        <v>0.86</v>
+        <v>0.89</v>
       </c>
       <c r="C13" s="2">
-        <v>0.84</v>
+        <v>0.75</v>
       </c>
       <c r="D13" s="2">
-        <v>0.92</v>
+        <v>0.82</v>
       </c>
       <c r="E13" s="2">
-        <v>0.84</v>
+        <v>0.71</v>
       </c>
       <c r="F13" s="2">
-        <v>0.99</v>
+        <v>0.74</v>
       </c>
       <c r="G13" s="2">
-        <v>0.96</v>
+        <v>0.64</v>
       </c>
       <c r="H13" s="2">
-        <v>0.97</v>
+        <v>0.68</v>
       </c>
       <c r="I13" s="2">
-        <v>1.07</v>
+        <v>0.69</v>
       </c>
       <c r="J13" s="2">
-        <v>0.94</v>
+        <v>0.54</v>
       </c>
       <c r="K13" s="2">
-        <v>0.88</v>
+        <v>0.61</v>
       </c>
       <c r="L13" s="2">
-        <v>0.86</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="M13" s="2">
-        <v>0.91</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B14" s="2">
-        <v>0.66</v>
+        <v>0.86</v>
       </c>
       <c r="C14" s="2">
-        <v>0.59</v>
+        <v>0.84</v>
       </c>
       <c r="D14" s="2">
-        <v>0.76</v>
+        <v>0.92</v>
       </c>
       <c r="E14" s="2">
-        <v>0.67</v>
+        <v>0.84</v>
       </c>
       <c r="F14" s="2">
-        <v>0.75</v>
+        <v>0.99</v>
       </c>
       <c r="G14" s="2">
-        <v>0.79</v>
+        <v>0.96</v>
       </c>
       <c r="H14" s="2">
+        <v>0.97</v>
+      </c>
+      <c r="I14" s="2">
+        <v>1.07</v>
+      </c>
+      <c r="J14" s="2">
+        <v>0.94</v>
+      </c>
+      <c r="K14" s="2">
+        <v>0.88</v>
+      </c>
+      <c r="L14" s="2">
         <v>0.86</v>
       </c>
-      <c r="I14" s="2">
-        <v>0.89</v>
-      </c>
-      <c r="J14" s="2">
-        <v>0.85</v>
-      </c>
-      <c r="K14" s="2">
-        <v>0.81</v>
-      </c>
-      <c r="L14" s="2">
-        <v>0.81</v>
-      </c>
       <c r="M14" s="2">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="B15" s="2">
-        <v>1.05</v>
+        <v>0.66</v>
       </c>
       <c r="C15" s="2">
+        <v>0.59</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.76</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0.67</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0.79</v>
+      </c>
+      <c r="H15" s="2">
         <v>0.86</v>
       </c>
-      <c r="D15" s="2">
-        <v>0.97</v>
-      </c>
-      <c r="E15" s="2">
-        <v>0.84</v>
-      </c>
-      <c r="F15" s="2">
-        <v>0.77</v>
-      </c>
-      <c r="G15" s="2">
-        <v>0.76</v>
-      </c>
-      <c r="H15" s="2">
-        <v>0.79</v>
-      </c>
       <c r="I15" s="2">
-        <v>0.69</v>
+        <v>0.89</v>
       </c>
       <c r="J15" s="2">
-        <v>0.69</v>
+        <v>0.85</v>
       </c>
       <c r="K15" s="2">
-        <v>0.69</v>
+        <v>0.81</v>
       </c>
       <c r="L15" s="2">
-        <v>0.66</v>
+        <v>0.81</v>
       </c>
       <c r="M15" s="2">
-        <v>0.73</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="B16" s="2">
-        <v>0.93</v>
+        <v>1.05</v>
       </c>
       <c r="C16" s="2">
-        <v>0.8</v>
+        <v>0.86</v>
       </c>
       <c r="D16" s="2">
+        <v>0.97</v>
+      </c>
+      <c r="E16" s="2">
         <v>0.84</v>
       </c>
-      <c r="E16" s="2">
-        <v>0.9</v>
-      </c>
       <c r="F16" s="2">
-        <v>0.88</v>
+        <v>0.77</v>
       </c>
       <c r="G16" s="2">
-        <v>0.96</v>
+        <v>0.76</v>
       </c>
       <c r="H16" s="2">
-        <v>1.07</v>
+        <v>0.79</v>
       </c>
       <c r="I16" s="2">
-        <v>1.02</v>
+        <v>0.69</v>
       </c>
       <c r="J16" s="2">
-        <v>1.1000000000000001</v>
+        <v>0.69</v>
       </c>
       <c r="K16" s="2">
-        <v>1.18</v>
+        <v>0.69</v>
       </c>
       <c r="L16" s="2">
-        <v>1.02</v>
+        <v>0.66</v>
       </c>
       <c r="M16" s="2">
-        <v>1.1200000000000001</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="B17" s="2">
-        <v>1.08</v>
+        <v>0.93</v>
       </c>
       <c r="C17" s="2">
-        <v>0.87</v>
+        <v>0.8</v>
       </c>
       <c r="D17" s="2">
-        <v>1.05</v>
+        <v>0.84</v>
       </c>
       <c r="E17" s="2">
-        <v>0.94</v>
+        <v>0.9</v>
       </c>
       <c r="F17" s="2">
-        <v>1.03</v>
+        <v>0.88</v>
       </c>
       <c r="G17" s="2">
-        <v>0.91</v>
+        <v>0.96</v>
       </c>
       <c r="H17" s="2">
-        <v>0.97</v>
+        <v>1.07</v>
       </c>
       <c r="I17" s="2">
-        <v>0.99</v>
+        <v>1.02</v>
       </c>
       <c r="J17" s="2">
-        <v>0.8</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K17" s="2">
-        <v>0.93</v>
+        <v>1.18</v>
       </c>
       <c r="L17" s="2">
-        <v>0.84</v>
+        <v>1.02</v>
       </c>
       <c r="M17" s="2">
-        <v>0.84</v>
+        <v>1.1200000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="B18" s="2">
-        <v>1.43</v>
+        <v>1.08</v>
       </c>
       <c r="C18" s="2">
-        <v>1.1499999999999999</v>
+        <v>0.87</v>
       </c>
       <c r="D18" s="2">
-        <v>1.42</v>
+        <v>1.05</v>
       </c>
       <c r="E18" s="2">
-        <v>1.08</v>
+        <v>0.94</v>
       </c>
       <c r="F18" s="2">
-        <v>1.28</v>
+        <v>1.03</v>
       </c>
       <c r="G18" s="2">
-        <v>1.18</v>
+        <v>0.91</v>
       </c>
       <c r="H18" s="2">
-        <v>1.17</v>
+        <v>0.97</v>
       </c>
       <c r="I18" s="2">
-        <v>1.26</v>
+        <v>0.99</v>
       </c>
       <c r="J18" s="2">
-        <v>1.06</v>
+        <v>0.8</v>
       </c>
       <c r="K18" s="2">
-        <v>1.0900000000000001</v>
+        <v>0.93</v>
       </c>
       <c r="L18" s="2">
-        <v>1.02</v>
+        <v>0.84</v>
       </c>
       <c r="M18" s="2">
-        <v>0.99</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="B19" s="2">
-        <v>1.38</v>
+        <v>1.43</v>
       </c>
       <c r="C19" s="2">
-        <v>1.22</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="D19" s="2">
-        <v>1.53</v>
+        <v>1.42</v>
       </c>
       <c r="E19" s="2">
-        <v>1.41</v>
+        <v>1.08</v>
       </c>
       <c r="F19" s="2">
-        <v>1.5</v>
+        <v>1.28</v>
       </c>
       <c r="G19" s="2">
-        <v>1.59</v>
+        <v>1.18</v>
       </c>
       <c r="H19" s="2">
-        <v>1.51</v>
+        <v>1.17</v>
       </c>
       <c r="I19" s="2">
-        <v>1.66</v>
+        <v>1.26</v>
       </c>
       <c r="J19" s="2">
-        <v>1.5</v>
+        <v>1.06</v>
       </c>
       <c r="K19" s="2">
-        <v>1.41</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="L19" s="2">
-        <v>1.38</v>
+        <v>1.02</v>
       </c>
       <c r="M19" s="2">
-        <v>1.47</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="B20" s="2">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="C20" s="2">
-        <v>1.08</v>
+        <v>1.22</v>
       </c>
       <c r="D20" s="2">
+        <v>1.53</v>
+      </c>
+      <c r="E20" s="2">
+        <v>1.41</v>
+      </c>
+      <c r="F20" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="G20" s="2">
+        <v>1.59</v>
+      </c>
+      <c r="H20" s="2">
+        <v>1.51</v>
+      </c>
+      <c r="I20" s="2">
+        <v>1.66</v>
+      </c>
+      <c r="J20" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="K20" s="2">
+        <v>1.41</v>
+      </c>
+      <c r="L20" s="2">
         <v>1.38</v>
       </c>
-      <c r="E20" s="2">
-        <v>1.18</v>
-      </c>
-      <c r="F20" s="2">
-        <v>1.23</v>
-      </c>
-      <c r="G20" s="2">
-        <v>1.23</v>
-      </c>
-      <c r="H20" s="2">
-        <v>1.29</v>
-      </c>
-      <c r="I20" s="2">
-        <v>1.29</v>
-      </c>
-      <c r="J20" s="2">
-        <v>1.25</v>
-      </c>
-      <c r="K20" s="2">
-        <v>1.21</v>
-      </c>
-      <c r="L20" s="2">
-        <v>1.25</v>
-      </c>
       <c r="M20" s="2">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="B21" s="2">
-        <v>1.97</v>
+        <v>1.27</v>
       </c>
       <c r="C21" s="2">
-        <v>1.83</v>
+        <v>1.08</v>
       </c>
       <c r="D21" s="2">
-        <v>1.78</v>
+        <v>1.38</v>
       </c>
       <c r="E21" s="2">
-        <v>1.87</v>
+        <v>1.18</v>
       </c>
       <c r="F21" s="2">
-        <v>1.97</v>
+        <v>1.23</v>
       </c>
       <c r="G21" s="2">
-        <v>1.86</v>
+        <v>1.23</v>
       </c>
       <c r="H21" s="2">
-        <v>2.08</v>
+        <v>1.29</v>
       </c>
       <c r="I21" s="2">
-        <v>1.77</v>
+        <v>1.29</v>
       </c>
       <c r="J21" s="2">
-        <v>1.68</v>
+        <v>1.25</v>
       </c>
       <c r="K21" s="2">
-        <v>1.64</v>
+        <v>1.21</v>
       </c>
       <c r="L21" s="2">
-        <v>1.34</v>
+        <v>1.25</v>
       </c>
       <c r="M21" s="2">
-        <v>1.37</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="B22" s="2">
-        <v>1.53</v>
+        <v>1.97</v>
       </c>
       <c r="C22" s="2">
-        <v>1.25</v>
+        <v>1.83</v>
       </c>
       <c r="D22" s="2">
+        <v>1.78</v>
+      </c>
+      <c r="E22" s="2">
+        <v>1.87</v>
+      </c>
+      <c r="F22" s="2">
+        <v>1.97</v>
+      </c>
+      <c r="G22" s="2">
+        <v>1.86</v>
+      </c>
+      <c r="H22" s="2">
+        <v>2.08</v>
+      </c>
+      <c r="I22" s="2">
+        <v>1.77</v>
+      </c>
+      <c r="J22" s="2">
+        <v>1.68</v>
+      </c>
+      <c r="K22" s="2">
+        <v>1.64</v>
+      </c>
+      <c r="L22" s="2">
+        <v>1.34</v>
+      </c>
+      <c r="M22" s="2">
         <v>1.37</v>
-      </c>
-      <c r="E22" s="2">
-        <v>1.48</v>
-      </c>
-      <c r="F22" s="2">
-        <v>1.41</v>
-      </c>
-      <c r="G22" s="2">
-        <v>1.33</v>
-      </c>
-      <c r="H22" s="2">
-        <v>1.54</v>
-      </c>
-      <c r="I22" s="2">
-        <v>1.44</v>
-      </c>
-      <c r="J22" s="2">
-        <v>1.38</v>
-      </c>
-      <c r="K22" s="2">
-        <v>1.65</v>
-      </c>
-      <c r="L22" s="2">
-        <v>1.54</v>
-      </c>
-      <c r="M22" s="2">
-        <v>1.74</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="B23" s="2">
-        <v>1.27</v>
+        <v>1.53</v>
       </c>
       <c r="C23" s="2">
-        <v>1.02</v>
+        <v>1.25</v>
       </c>
       <c r="D23" s="2">
-        <v>1.26</v>
+        <v>1.37</v>
       </c>
       <c r="E23" s="2">
-        <v>1.19</v>
+        <v>1.48</v>
       </c>
       <c r="F23" s="2">
-        <v>1.34</v>
+        <v>1.41</v>
       </c>
       <c r="G23" s="2">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="H23" s="2">
-        <v>1.5</v>
+        <v>1.54</v>
       </c>
       <c r="I23" s="2">
-        <v>1.6</v>
+        <v>1.44</v>
       </c>
       <c r="J23" s="2">
-        <v>1.32</v>
+        <v>1.38</v>
       </c>
       <c r="K23" s="2">
-        <v>1.53</v>
+        <v>1.65</v>
       </c>
       <c r="L23" s="2">
-        <v>1.39</v>
+        <v>1.54</v>
       </c>
       <c r="M23" s="2">
-        <v>1.39</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
+        <v>2001</v>
+      </c>
+      <c r="B24" s="2">
+        <v>1.27</v>
+      </c>
+      <c r="C24" s="2">
+        <v>1.02</v>
+      </c>
+      <c r="D24" s="2">
+        <v>1.26</v>
+      </c>
+      <c r="E24" s="2">
+        <v>1.19</v>
+      </c>
+      <c r="F24" s="2">
+        <v>1.34</v>
+      </c>
+      <c r="G24" s="2">
+        <v>1.27</v>
+      </c>
+      <c r="H24" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="I24" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="J24" s="2">
+        <v>1.32</v>
+      </c>
+      <c r="K24" s="2">
+        <v>1.53</v>
+      </c>
+      <c r="L24" s="2">
+        <v>1.39</v>
+      </c>
+      <c r="M24" s="2">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
         <v>2000</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B25" s="2">
         <v>1.46</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C25" s="2">
         <v>1.45</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D25" s="2">
         <v>1.45</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E25" s="2">
         <v>1.3</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F25" s="2">
         <v>1.49</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G25" s="2">
         <v>1.39</v>
       </c>
-      <c r="H24" s="2">
+      <c r="H25" s="2">
         <v>1.31</v>
       </c>
-      <c r="I24" s="2">
+      <c r="I25" s="2">
         <v>1.41</v>
       </c>
-      <c r="J24" s="2">
+      <c r="J25" s="2">
         <v>1.22</v>
       </c>
-      <c r="K24" s="2">
+      <c r="K25" s="2">
         <v>1.29</v>
       </c>
-      <c r="L24" s="2">
+      <c r="L25" s="2">
         <v>1.22</v>
       </c>
-      <c r="M24" s="2">
+      <c r="M25" s="2">
         <v>1.2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/indexer_lib/data/SELIC.xlsx
+++ b/indexer_lib/data/SELIC.xlsx
@@ -476,6 +476,15 @@
       <c r="D2" s="2">
         <v>1.17</v>
       </c>
+      <c r="E2" s="2">
+        <v>0.92</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1.07</v>
+      </c>
       <c r="O2" s="1"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">

--- a/indexer_lib/data/SELIC.xlsx
+++ b/indexer_lib/data/SELIC.xlsx
@@ -485,7 +485,24 @@
       <c r="G2" s="2">
         <v>1.07</v>
       </c>
-      <c r="O2" s="1"/>
+      <c r="H2" s="2">
+        <v>1.07</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0.97</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0.92</v>
+      </c>
+      <c r="O2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -526,9 +543,6 @@
       </c>
       <c r="M3" s="2">
         <v>1.1200000000000001</v>
-      </c>
-      <c r="O3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">

--- a/indexer_lib/data/SELIC.xlsx
+++ b/indexer_lib/data/SELIC.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B3A4E56-2C22-4AD7-9F21-589C8AEC7F81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -14,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Ano</t>
   </si>
@@ -54,17 +55,11 @@
   <si>
     <t>Dezembro</t>
   </si>
-  <si>
-    <t>Fonte</t>
-  </si>
-  <si>
-    <t>https://www.valor.srv.br/indices/selic.php</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
@@ -125,7 +120,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -163,7 +158,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -198,6 +193,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -233,9 +245,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -408,8 +437,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -459,991 +488,1012 @@
       <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="O1" s="1"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B2" s="2">
-        <v>1.1200000000000001</v>
+        <v>0.97</v>
       </c>
       <c r="C2" s="2">
-        <v>0.92</v>
+        <v>0.8</v>
       </c>
       <c r="D2" s="2">
-        <v>1.17</v>
+        <v>0.83</v>
       </c>
       <c r="E2" s="2">
-        <v>0.92</v>
+        <v>0.89</v>
       </c>
       <c r="F2" s="2">
-        <v>1.1200000000000001</v>
+        <v>0.83</v>
       </c>
       <c r="G2" s="2">
-        <v>1.07</v>
-      </c>
-      <c r="H2" s="2">
-        <v>1.07</v>
-      </c>
-      <c r="I2" s="2">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="J2" s="2">
-        <v>0.97</v>
-      </c>
-      <c r="K2" s="2">
-        <v>1</v>
-      </c>
-      <c r="L2" s="2">
-        <v>0.92</v>
-      </c>
-      <c r="O2" t="s">
-        <v>14</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B3" s="2">
-        <v>0.73</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="C3" s="2">
-        <v>0.76</v>
+        <v>0.92</v>
       </c>
       <c r="D3" s="2">
-        <v>0.93</v>
+        <v>1.17</v>
       </c>
       <c r="E3" s="2">
-        <v>0.83</v>
+        <v>0.92</v>
       </c>
       <c r="F3" s="2">
-        <v>1.03</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="G3" s="2">
-        <v>1.02</v>
+        <v>1.07</v>
       </c>
       <c r="H3" s="2">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="I3" s="2">
-        <v>1.17</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="J3" s="2">
-        <v>1.07</v>
+        <v>0.97</v>
       </c>
       <c r="K3" s="2">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="L3" s="2">
-        <v>1.02</v>
+        <v>0.92</v>
       </c>
       <c r="M3" s="2">
-        <v>1.1200000000000001</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B4" s="2">
-        <v>0.15</v>
+        <v>0.73</v>
       </c>
       <c r="C4" s="2">
-        <v>0.13</v>
+        <v>0.76</v>
       </c>
       <c r="D4" s="2">
-        <v>0.2</v>
+        <v>0.93</v>
       </c>
       <c r="E4" s="2">
-        <v>0.21</v>
+        <v>0.83</v>
       </c>
       <c r="F4" s="2">
-        <v>0.27</v>
+        <v>1.03</v>
       </c>
       <c r="G4" s="2">
-        <v>0.31</v>
+        <v>1.02</v>
       </c>
       <c r="H4" s="2">
-        <v>0.36</v>
+        <v>1.03</v>
       </c>
       <c r="I4" s="2">
-        <v>0.43</v>
+        <v>1.17</v>
       </c>
       <c r="J4" s="2">
-        <v>0.44</v>
+        <v>1.07</v>
       </c>
       <c r="K4" s="2">
-        <v>0.49</v>
+        <v>1.02</v>
       </c>
       <c r="L4" s="2">
-        <v>0.59</v>
+        <v>1.02</v>
       </c>
       <c r="M4" s="2">
-        <v>0.77</v>
+        <v>1.1200000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B5" s="2">
-        <v>0.38</v>
+        <v>0.15</v>
       </c>
       <c r="C5" s="2">
-        <v>0.28999999999999998</v>
+        <v>0.13</v>
       </c>
       <c r="D5" s="2">
-        <v>0.34</v>
+        <v>0.2</v>
       </c>
       <c r="E5" s="2">
-        <v>0.28000000000000003</v>
+        <v>0.21</v>
       </c>
       <c r="F5" s="2">
-        <v>0.24</v>
+        <v>0.27</v>
       </c>
       <c r="G5" s="2">
-        <v>0.21</v>
+        <v>0.31</v>
       </c>
       <c r="H5" s="2">
-        <v>0.19</v>
+        <v>0.36</v>
       </c>
       <c r="I5" s="2">
-        <v>0.16</v>
+        <v>0.43</v>
       </c>
       <c r="J5" s="2">
-        <v>0.16</v>
+        <v>0.44</v>
       </c>
       <c r="K5" s="2">
-        <v>0.16</v>
+        <v>0.49</v>
       </c>
       <c r="L5" s="2">
-        <v>0.15</v>
+        <v>0.59</v>
       </c>
       <c r="M5" s="2">
-        <v>0.16</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B6" s="2">
-        <v>0.54</v>
+        <v>0.38</v>
       </c>
       <c r="C6" s="2">
-        <v>0.49</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="D6" s="2">
-        <v>0.47</v>
+        <v>0.34</v>
       </c>
       <c r="E6" s="2">
-        <v>0.52</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="F6" s="2">
-        <v>0.54</v>
+        <v>0.24</v>
       </c>
       <c r="G6" s="2">
-        <v>0.47</v>
+        <v>0.21</v>
       </c>
       <c r="H6" s="2">
-        <v>0.56999999999999995</v>
+        <v>0.19</v>
       </c>
       <c r="I6" s="2">
-        <v>0.5</v>
+        <v>0.16</v>
       </c>
       <c r="J6" s="2">
-        <v>0.46</v>
+        <v>0.16</v>
       </c>
       <c r="K6" s="2">
-        <v>0.48</v>
+        <v>0.16</v>
       </c>
       <c r="L6" s="2">
-        <v>0.38</v>
+        <v>0.15</v>
       </c>
       <c r="M6" s="2">
-        <v>0.37</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B7" s="2">
-        <v>0.57999999999999996</v>
+        <v>0.54</v>
       </c>
       <c r="C7" s="2">
+        <v>0.49</v>
+      </c>
+      <c r="D7" s="2">
         <v>0.47</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0.53</v>
       </c>
       <c r="E7" s="2">
         <v>0.52</v>
       </c>
       <c r="F7" s="2">
-        <v>0.52</v>
+        <v>0.54</v>
       </c>
       <c r="G7" s="2">
-        <v>0.52</v>
+        <v>0.47</v>
       </c>
       <c r="H7" s="2">
-        <v>0.54</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="I7" s="2">
-        <v>0.56999999999999995</v>
+        <v>0.5</v>
       </c>
       <c r="J7" s="2">
-        <v>0.47</v>
+        <v>0.46</v>
       </c>
       <c r="K7" s="2">
-        <v>0.54</v>
+        <v>0.48</v>
       </c>
       <c r="L7" s="2">
-        <v>0.49</v>
+        <v>0.38</v>
       </c>
       <c r="M7" s="2">
-        <v>0.49</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B8" s="2">
-        <v>1.0900000000000001</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="C8" s="2">
-        <v>0.87</v>
+        <v>0.47</v>
       </c>
       <c r="D8" s="2">
-        <v>1.05</v>
+        <v>0.53</v>
       </c>
       <c r="E8" s="2">
-        <v>0.79</v>
+        <v>0.52</v>
       </c>
       <c r="F8" s="2">
-        <v>0.93</v>
+        <v>0.52</v>
       </c>
       <c r="G8" s="2">
-        <v>0.81</v>
+        <v>0.52</v>
       </c>
       <c r="H8" s="2">
-        <v>0.8</v>
+        <v>0.54</v>
       </c>
       <c r="I8" s="2">
-        <v>0.8</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="J8" s="2">
-        <v>0.64</v>
+        <v>0.47</v>
       </c>
       <c r="K8" s="2">
-        <v>0.64</v>
+        <v>0.54</v>
       </c>
       <c r="L8" s="2">
-        <v>0.56999999999999995</v>
+        <v>0.49</v>
       </c>
       <c r="M8" s="2">
-        <v>0.54</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B9" s="2">
-        <v>1.06</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="C9" s="2">
-        <v>1</v>
+        <v>0.87</v>
       </c>
       <c r="D9" s="2">
-        <v>1.1599999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="E9" s="2">
-        <v>1.06</v>
+        <v>0.79</v>
       </c>
       <c r="F9" s="2">
-        <v>1.1100000000000001</v>
+        <v>0.93</v>
       </c>
       <c r="G9" s="2">
-        <v>1.1599999999999999</v>
+        <v>0.81</v>
       </c>
       <c r="H9" s="2">
-        <v>1.1100000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="I9" s="2">
-        <v>1.22</v>
+        <v>0.8</v>
       </c>
       <c r="J9" s="2">
-        <v>1.1100000000000001</v>
+        <v>0.64</v>
       </c>
       <c r="K9" s="2">
-        <v>1.05</v>
+        <v>0.64</v>
       </c>
       <c r="L9" s="2">
-        <v>1.04</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="M9" s="2">
-        <v>1.1200000000000001</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B10" s="2">
-        <v>0.94</v>
+        <v>1.06</v>
       </c>
       <c r="C10" s="2">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="D10" s="2">
-        <v>1.04</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="E10" s="2">
-        <v>0.95</v>
+        <v>1.06</v>
       </c>
       <c r="F10" s="2">
-        <v>0.99</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="G10" s="2">
-        <v>1.07</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="H10" s="2">
-        <v>1.18</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="I10" s="2">
-        <v>1.1100000000000001</v>
+        <v>1.22</v>
       </c>
       <c r="J10" s="2">
         <v>1.1100000000000001</v>
       </c>
       <c r="K10" s="2">
-        <v>1.1100000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="L10" s="2">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="M10" s="2">
-        <v>1.1599999999999999</v>
+        <v>1.1200000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B11" s="2">
-        <v>0.85</v>
+        <v>0.94</v>
       </c>
       <c r="C11" s="2">
-        <v>0.79</v>
+        <v>0.82</v>
       </c>
       <c r="D11" s="2">
-        <v>0.77</v>
+        <v>1.04</v>
       </c>
       <c r="E11" s="2">
-        <v>0.82</v>
+        <v>0.95</v>
       </c>
       <c r="F11" s="2">
-        <v>0.87</v>
+        <v>0.99</v>
       </c>
       <c r="G11" s="2">
-        <v>0.82</v>
+        <v>1.07</v>
       </c>
       <c r="H11" s="2">
-        <v>0.95</v>
+        <v>1.18</v>
       </c>
       <c r="I11" s="2">
-        <v>0.87</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="J11" s="2">
-        <v>0.91</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="K11" s="2">
-        <v>0.95</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="L11" s="2">
-        <v>0.84</v>
+        <v>1.06</v>
       </c>
       <c r="M11" s="2">
-        <v>0.96</v>
+        <v>1.1599999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B12" s="2">
-        <v>0.6</v>
+        <v>0.85</v>
       </c>
       <c r="C12" s="2">
-        <v>0.49</v>
+        <v>0.79</v>
       </c>
       <c r="D12" s="2">
-        <v>0.55000000000000004</v>
+        <v>0.77</v>
       </c>
       <c r="E12" s="2">
-        <v>0.61</v>
+        <v>0.82</v>
       </c>
       <c r="F12" s="2">
-        <v>0.6</v>
+        <v>0.87</v>
       </c>
       <c r="G12" s="2">
-        <v>0.61</v>
+        <v>0.82</v>
       </c>
       <c r="H12" s="2">
-        <v>0.72</v>
+        <v>0.95</v>
       </c>
       <c r="I12" s="2">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="J12" s="2">
-        <v>0.71</v>
+        <v>0.91</v>
       </c>
       <c r="K12" s="2">
-        <v>0.81</v>
+        <v>0.95</v>
       </c>
       <c r="L12" s="2">
-        <v>0.72</v>
+        <v>0.84</v>
       </c>
       <c r="M12" s="2">
-        <v>0.79</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B13" s="2">
-        <v>0.89</v>
+        <v>0.6</v>
       </c>
       <c r="C13" s="2">
-        <v>0.75</v>
+        <v>0.49</v>
       </c>
       <c r="D13" s="2">
-        <v>0.82</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="E13" s="2">
+        <v>0.61</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0.61</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0.72</v>
+      </c>
+      <c r="I13" s="2">
         <v>0.71</v>
       </c>
-      <c r="F13" s="2">
-        <v>0.74</v>
-      </c>
-      <c r="G13" s="2">
-        <v>0.64</v>
-      </c>
-      <c r="H13" s="2">
-        <v>0.68</v>
-      </c>
-      <c r="I13" s="2">
-        <v>0.69</v>
-      </c>
       <c r="J13" s="2">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="K13" s="2">
-        <v>0.61</v>
+        <v>0.81</v>
       </c>
       <c r="L13" s="2">
-        <v>0.55000000000000004</v>
+        <v>0.72</v>
       </c>
       <c r="M13" s="2">
-        <v>0.55000000000000004</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B14" s="2">
-        <v>0.86</v>
+        <v>0.89</v>
       </c>
       <c r="C14" s="2">
-        <v>0.84</v>
+        <v>0.75</v>
       </c>
       <c r="D14" s="2">
-        <v>0.92</v>
+        <v>0.82</v>
       </c>
       <c r="E14" s="2">
-        <v>0.84</v>
+        <v>0.71</v>
       </c>
       <c r="F14" s="2">
-        <v>0.99</v>
+        <v>0.74</v>
       </c>
       <c r="G14" s="2">
-        <v>0.96</v>
+        <v>0.64</v>
       </c>
       <c r="H14" s="2">
-        <v>0.97</v>
+        <v>0.68</v>
       </c>
       <c r="I14" s="2">
-        <v>1.07</v>
+        <v>0.69</v>
       </c>
       <c r="J14" s="2">
-        <v>0.94</v>
+        <v>0.54</v>
       </c>
       <c r="K14" s="2">
-        <v>0.88</v>
+        <v>0.61</v>
       </c>
       <c r="L14" s="2">
-        <v>0.86</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="M14" s="2">
-        <v>0.91</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B15" s="2">
-        <v>0.66</v>
+        <v>0.86</v>
       </c>
       <c r="C15" s="2">
-        <v>0.59</v>
+        <v>0.84</v>
       </c>
       <c r="D15" s="2">
-        <v>0.76</v>
+        <v>0.92</v>
       </c>
       <c r="E15" s="2">
-        <v>0.67</v>
+        <v>0.84</v>
       </c>
       <c r="F15" s="2">
-        <v>0.75</v>
+        <v>0.99</v>
       </c>
       <c r="G15" s="2">
-        <v>0.79</v>
+        <v>0.96</v>
       </c>
       <c r="H15" s="2">
+        <v>0.97</v>
+      </c>
+      <c r="I15" s="2">
+        <v>1.07</v>
+      </c>
+      <c r="J15" s="2">
+        <v>0.94</v>
+      </c>
+      <c r="K15" s="2">
+        <v>0.88</v>
+      </c>
+      <c r="L15" s="2">
         <v>0.86</v>
       </c>
-      <c r="I15" s="2">
-        <v>0.89</v>
-      </c>
-      <c r="J15" s="2">
-        <v>0.85</v>
-      </c>
-      <c r="K15" s="2">
-        <v>0.81</v>
-      </c>
-      <c r="L15" s="2">
-        <v>0.81</v>
-      </c>
       <c r="M15" s="2">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="B16" s="2">
-        <v>1.05</v>
+        <v>0.66</v>
       </c>
       <c r="C16" s="2">
+        <v>0.59</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.76</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0.67</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0.79</v>
+      </c>
+      <c r="H16" s="2">
         <v>0.86</v>
       </c>
-      <c r="D16" s="2">
-        <v>0.97</v>
-      </c>
-      <c r="E16" s="2">
-        <v>0.84</v>
-      </c>
-      <c r="F16" s="2">
-        <v>0.77</v>
-      </c>
-      <c r="G16" s="2">
-        <v>0.76</v>
-      </c>
-      <c r="H16" s="2">
-        <v>0.79</v>
-      </c>
       <c r="I16" s="2">
-        <v>0.69</v>
+        <v>0.89</v>
       </c>
       <c r="J16" s="2">
-        <v>0.69</v>
+        <v>0.85</v>
       </c>
       <c r="K16" s="2">
-        <v>0.69</v>
+        <v>0.81</v>
       </c>
       <c r="L16" s="2">
-        <v>0.66</v>
+        <v>0.81</v>
       </c>
       <c r="M16" s="2">
-        <v>0.73</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="B17" s="2">
-        <v>0.93</v>
+        <v>1.05</v>
       </c>
       <c r="C17" s="2">
-        <v>0.8</v>
+        <v>0.86</v>
       </c>
       <c r="D17" s="2">
+        <v>0.97</v>
+      </c>
+      <c r="E17" s="2">
         <v>0.84</v>
       </c>
-      <c r="E17" s="2">
-        <v>0.9</v>
-      </c>
       <c r="F17" s="2">
-        <v>0.88</v>
+        <v>0.77</v>
       </c>
       <c r="G17" s="2">
-        <v>0.96</v>
+        <v>0.76</v>
       </c>
       <c r="H17" s="2">
-        <v>1.07</v>
+        <v>0.79</v>
       </c>
       <c r="I17" s="2">
-        <v>1.02</v>
+        <v>0.69</v>
       </c>
       <c r="J17" s="2">
-        <v>1.1000000000000001</v>
+        <v>0.69</v>
       </c>
       <c r="K17" s="2">
-        <v>1.18</v>
+        <v>0.69</v>
       </c>
       <c r="L17" s="2">
-        <v>1.02</v>
+        <v>0.66</v>
       </c>
       <c r="M17" s="2">
-        <v>1.1200000000000001</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="B18" s="2">
-        <v>1.08</v>
+        <v>0.93</v>
       </c>
       <c r="C18" s="2">
-        <v>0.87</v>
+        <v>0.8</v>
       </c>
       <c r="D18" s="2">
-        <v>1.05</v>
+        <v>0.84</v>
       </c>
       <c r="E18" s="2">
-        <v>0.94</v>
+        <v>0.9</v>
       </c>
       <c r="F18" s="2">
-        <v>1.03</v>
+        <v>0.88</v>
       </c>
       <c r="G18" s="2">
-        <v>0.91</v>
+        <v>0.96</v>
       </c>
       <c r="H18" s="2">
-        <v>0.97</v>
+        <v>1.07</v>
       </c>
       <c r="I18" s="2">
-        <v>0.99</v>
+        <v>1.02</v>
       </c>
       <c r="J18" s="2">
-        <v>0.8</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K18" s="2">
-        <v>0.93</v>
+        <v>1.18</v>
       </c>
       <c r="L18" s="2">
-        <v>0.84</v>
+        <v>1.02</v>
       </c>
       <c r="M18" s="2">
-        <v>0.84</v>
+        <v>1.1200000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="B19" s="2">
-        <v>1.43</v>
+        <v>1.08</v>
       </c>
       <c r="C19" s="2">
-        <v>1.1499999999999999</v>
+        <v>0.87</v>
       </c>
       <c r="D19" s="2">
-        <v>1.42</v>
+        <v>1.05</v>
       </c>
       <c r="E19" s="2">
-        <v>1.08</v>
+        <v>0.94</v>
       </c>
       <c r="F19" s="2">
-        <v>1.28</v>
+        <v>1.03</v>
       </c>
       <c r="G19" s="2">
-        <v>1.18</v>
+        <v>0.91</v>
       </c>
       <c r="H19" s="2">
-        <v>1.17</v>
+        <v>0.97</v>
       </c>
       <c r="I19" s="2">
-        <v>1.26</v>
+        <v>0.99</v>
       </c>
       <c r="J19" s="2">
-        <v>1.06</v>
+        <v>0.8</v>
       </c>
       <c r="K19" s="2">
-        <v>1.0900000000000001</v>
+        <v>0.93</v>
       </c>
       <c r="L19" s="2">
-        <v>1.02</v>
+        <v>0.84</v>
       </c>
       <c r="M19" s="2">
-        <v>0.99</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="B20" s="2">
-        <v>1.38</v>
+        <v>1.43</v>
       </c>
       <c r="C20" s="2">
-        <v>1.22</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="D20" s="2">
-        <v>1.53</v>
+        <v>1.42</v>
       </c>
       <c r="E20" s="2">
-        <v>1.41</v>
+        <v>1.08</v>
       </c>
       <c r="F20" s="2">
-        <v>1.5</v>
+        <v>1.28</v>
       </c>
       <c r="G20" s="2">
-        <v>1.59</v>
+        <v>1.18</v>
       </c>
       <c r="H20" s="2">
-        <v>1.51</v>
+        <v>1.17</v>
       </c>
       <c r="I20" s="2">
-        <v>1.66</v>
+        <v>1.26</v>
       </c>
       <c r="J20" s="2">
-        <v>1.5</v>
+        <v>1.06</v>
       </c>
       <c r="K20" s="2">
-        <v>1.41</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="L20" s="2">
-        <v>1.38</v>
+        <v>1.02</v>
       </c>
       <c r="M20" s="2">
-        <v>1.47</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="B21" s="2">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="C21" s="2">
-        <v>1.08</v>
+        <v>1.22</v>
       </c>
       <c r="D21" s="2">
+        <v>1.53</v>
+      </c>
+      <c r="E21" s="2">
+        <v>1.41</v>
+      </c>
+      <c r="F21" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="G21" s="2">
+        <v>1.59</v>
+      </c>
+      <c r="H21" s="2">
+        <v>1.51</v>
+      </c>
+      <c r="I21" s="2">
+        <v>1.66</v>
+      </c>
+      <c r="J21" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="K21" s="2">
+        <v>1.41</v>
+      </c>
+      <c r="L21" s="2">
         <v>1.38</v>
       </c>
-      <c r="E21" s="2">
-        <v>1.18</v>
-      </c>
-      <c r="F21" s="2">
-        <v>1.23</v>
-      </c>
-      <c r="G21" s="2">
-        <v>1.23</v>
-      </c>
-      <c r="H21" s="2">
-        <v>1.29</v>
-      </c>
-      <c r="I21" s="2">
-        <v>1.29</v>
-      </c>
-      <c r="J21" s="2">
-        <v>1.25</v>
-      </c>
-      <c r="K21" s="2">
-        <v>1.21</v>
-      </c>
-      <c r="L21" s="2">
-        <v>1.25</v>
-      </c>
       <c r="M21" s="2">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="B22" s="2">
-        <v>1.97</v>
+        <v>1.27</v>
       </c>
       <c r="C22" s="2">
-        <v>1.83</v>
+        <v>1.08</v>
       </c>
       <c r="D22" s="2">
-        <v>1.78</v>
+        <v>1.38</v>
       </c>
       <c r="E22" s="2">
-        <v>1.87</v>
+        <v>1.18</v>
       </c>
       <c r="F22" s="2">
-        <v>1.97</v>
+        <v>1.23</v>
       </c>
       <c r="G22" s="2">
-        <v>1.86</v>
+        <v>1.23</v>
       </c>
       <c r="H22" s="2">
-        <v>2.08</v>
+        <v>1.29</v>
       </c>
       <c r="I22" s="2">
-        <v>1.77</v>
+        <v>1.29</v>
       </c>
       <c r="J22" s="2">
-        <v>1.68</v>
+        <v>1.25</v>
       </c>
       <c r="K22" s="2">
-        <v>1.64</v>
+        <v>1.21</v>
       </c>
       <c r="L22" s="2">
-        <v>1.34</v>
+        <v>1.25</v>
       </c>
       <c r="M22" s="2">
-        <v>1.37</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="B23" s="2">
-        <v>1.53</v>
+        <v>1.97</v>
       </c>
       <c r="C23" s="2">
-        <v>1.25</v>
+        <v>1.83</v>
       </c>
       <c r="D23" s="2">
+        <v>1.78</v>
+      </c>
+      <c r="E23" s="2">
+        <v>1.87</v>
+      </c>
+      <c r="F23" s="2">
+        <v>1.97</v>
+      </c>
+      <c r="G23" s="2">
+        <v>1.86</v>
+      </c>
+      <c r="H23" s="2">
+        <v>2.08</v>
+      </c>
+      <c r="I23" s="2">
+        <v>1.77</v>
+      </c>
+      <c r="J23" s="2">
+        <v>1.68</v>
+      </c>
+      <c r="K23" s="2">
+        <v>1.64</v>
+      </c>
+      <c r="L23" s="2">
+        <v>1.34</v>
+      </c>
+      <c r="M23" s="2">
         <v>1.37</v>
-      </c>
-      <c r="E23" s="2">
-        <v>1.48</v>
-      </c>
-      <c r="F23" s="2">
-        <v>1.41</v>
-      </c>
-      <c r="G23" s="2">
-        <v>1.33</v>
-      </c>
-      <c r="H23" s="2">
-        <v>1.54</v>
-      </c>
-      <c r="I23" s="2">
-        <v>1.44</v>
-      </c>
-      <c r="J23" s="2">
-        <v>1.38</v>
-      </c>
-      <c r="K23" s="2">
-        <v>1.65</v>
-      </c>
-      <c r="L23" s="2">
-        <v>1.54</v>
-      </c>
-      <c r="M23" s="2">
-        <v>1.74</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="B24" s="2">
-        <v>1.27</v>
+        <v>1.53</v>
       </c>
       <c r="C24" s="2">
-        <v>1.02</v>
+        <v>1.25</v>
       </c>
       <c r="D24" s="2">
-        <v>1.26</v>
+        <v>1.37</v>
       </c>
       <c r="E24" s="2">
-        <v>1.19</v>
+        <v>1.48</v>
       </c>
       <c r="F24" s="2">
-        <v>1.34</v>
+        <v>1.41</v>
       </c>
       <c r="G24" s="2">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="H24" s="2">
-        <v>1.5</v>
+        <v>1.54</v>
       </c>
       <c r="I24" s="2">
-        <v>1.6</v>
+        <v>1.44</v>
       </c>
       <c r="J24" s="2">
-        <v>1.32</v>
+        <v>1.38</v>
       </c>
       <c r="K24" s="2">
-        <v>1.53</v>
+        <v>1.65</v>
       </c>
       <c r="L24" s="2">
-        <v>1.39</v>
+        <v>1.54</v>
       </c>
       <c r="M24" s="2">
-        <v>1.39</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
+        <v>2001</v>
+      </c>
+      <c r="B25" s="2">
+        <v>1.27</v>
+      </c>
+      <c r="C25" s="2">
+        <v>1.02</v>
+      </c>
+      <c r="D25" s="2">
+        <v>1.26</v>
+      </c>
+      <c r="E25" s="2">
+        <v>1.19</v>
+      </c>
+      <c r="F25" s="2">
+        <v>1.34</v>
+      </c>
+      <c r="G25" s="2">
+        <v>1.27</v>
+      </c>
+      <c r="H25" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="I25" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="J25" s="2">
+        <v>1.32</v>
+      </c>
+      <c r="K25" s="2">
+        <v>1.53</v>
+      </c>
+      <c r="L25" s="2">
+        <v>1.39</v>
+      </c>
+      <c r="M25" s="2">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
         <v>2000</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B26" s="2">
         <v>1.46</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C26" s="2">
         <v>1.45</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D26" s="2">
         <v>1.45</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E26" s="2">
         <v>1.3</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F26" s="2">
         <v>1.49</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G26" s="2">
         <v>1.39</v>
       </c>
-      <c r="H25" s="2">
+      <c r="H26" s="2">
         <v>1.31</v>
       </c>
-      <c r="I25" s="2">
+      <c r="I26" s="2">
         <v>1.41</v>
       </c>
-      <c r="J25" s="2">
+      <c r="J26" s="2">
         <v>1.22</v>
       </c>
-      <c r="K25" s="2">
+      <c r="K26" s="2">
         <v>1.29</v>
       </c>
-      <c r="L25" s="2">
+      <c r="L26" s="2">
         <v>1.22</v>
       </c>
-      <c r="M25" s="2">
+      <c r="M26" s="2">
         <v>1.2</v>
       </c>
     </row>
